--- a/data/financial_statements/soci/UNP.xlsx
+++ b/data/financial_statements/soci/UNP.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -119,9 +239,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -174,12 +291,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -476,3861 +590,3942 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN33"/>
+  <dimension ref="A1:AO33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>6180000000</v>
+      </c>
+      <c r="C2">
         <v>6566000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>6269000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>5860000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>5733000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>5566000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>5504000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>5001000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>5141000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>4919000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>4244000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>5229000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>5212000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>5516000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>5596000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>5384000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>5757000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>5928000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>5672000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>5475000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>5450000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>5408000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>5250000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>5132000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>5168000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>5174000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>4770000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>4829000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>5208000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>5562000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>5429000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>5614000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>6153000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>6182000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>6015000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>5638000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>5630000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>5573000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>5470000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>5290000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>0.078</v>
+      </c>
+      <c r="C3">
         <v>0.1797</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.139</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.1718</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.1152</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.1315</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.2969</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>-0.0436</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-0.0136</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-0.1082</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>-0.2416</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>-0.0288</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>-0.09470000000000001</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>-0.06950000000000001</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>-0.0134</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>-0.0166</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>0.0563</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.09619999999999999</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>0.0804</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>0.0668</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>0.0546</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>0.0452</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>0.1006</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>0.06270000000000001</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>-0.0077</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>-0.0698</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>-0.1214</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>-0.1398</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>-0.1536</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>-0.1003</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>-0.0974</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>-0.0043</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>0.0929</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>0.1093</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>0.09959999999999999</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>0.0658</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>0.07240000000000001</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>0.043</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>0.0477</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>0.0348</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>2660000000</v>
+      </c>
+      <c r="C4">
         <v>2836000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>2654000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>2376000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>2205000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>2094000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1997000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1927000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1845000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>1817000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>1593000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>2014000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>2092000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>2212000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>2278000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>2312000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>2502000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>2553000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>2514000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>2461000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>2368000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>2302000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>2235000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>2288000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>2199000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>2149000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>2076000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>2102000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>2233000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>2340000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>2446000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>2576000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>2767000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>2819000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>2805000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>2782000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>2700000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>2650000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>2633000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>2673000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>3520000000</v>
+      </c>
+      <c r="C5">
         <v>3730000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>3615000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>3484000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>3528000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>3472000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>3507000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>3074000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>3296000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>3102000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>2651000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>3215000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>3120000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>3304000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>3318000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>3072000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>3255000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>3375000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>3158000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>3014000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>3082000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>3106000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>3015000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>2844000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>2969000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>3025000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>2694000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>2727000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>2975000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>3222000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>2983000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>3038000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>3386000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>3363000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>3210000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>2856000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>2930000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>2923000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>2837000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>2617000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6">
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6">
         <v>270000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>284000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>320000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>513000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>299000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>235000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>298000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>231000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>2412000000</v>
+      </c>
+      <c r="C7">
         <v>2633000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>2495000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>2377000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2440000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>2432000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>2473000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>1993000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>2006000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>2031000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>1654000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>2143000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>2100000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>2234000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>2260000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>1960000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>2210000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>2269000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>2099000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>1939000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>2247000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>2073000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>1998000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>1788000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>1936000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>1960000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>1660000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>1687000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>1918000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>2208000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>1949000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>1977000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>2373000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>2330000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>2196000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>1854000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>1973000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>1962000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>1878000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>1633000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
         <v>315000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>316000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>307000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>295000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>290000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>282000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>290000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>279000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>295000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>289000000</v>
-      </c>
-      <c r="L8">
-        <v>278000000</v>
       </c>
       <c r="M8">
         <v>278000000</v>
       </c>
+      <c r="N8">
+        <v>278000000</v>
+      </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>333000000</v>
+      </c>
+      <c r="C9">
         <v>315000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>316000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>307000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>295000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>290000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>282000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>290000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>279000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>295000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>289000000</v>
-      </c>
-      <c r="L9">
-        <v>278000000</v>
       </c>
       <c r="M9">
         <v>278000000</v>
       </c>
       <c r="N9">
+        <v>278000000</v>
+      </c>
+      <c r="O9">
         <v>266000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>259000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>247000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>240000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>241000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>203000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>186000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>188000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>180000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>179000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>172000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>174000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>184000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>173000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>167000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>164000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>157000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>153000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>148000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>146000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>144000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>138000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>133000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>127000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>138000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>133000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>128000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>-241000000</v>
+      </c>
+      <c r="C10">
         <v>-191000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-153000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>-260000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-212000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>-252000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>-157000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>-239000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>-213000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-258000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>-158000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>-225000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>-222000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>-213000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>-202000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>-170000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>-194000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>-193000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>-161000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>-228000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>-155000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>-90000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>-129000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>-100000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>-105000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>-155000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>-96000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>-121000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>-136000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>-127000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>-11000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>-122000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>-75000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>-124000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>-116000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>-95000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>-90000000</v>
-      </c>
-      <c r="AL10">
-        <v>-110000000</v>
       </c>
       <c r="AM10">
         <v>-110000000</v>
       </c>
       <c r="AN10">
+        <v>-110000000</v>
+      </c>
+      <c r="AO10">
         <v>-88000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>2171000000</v>
+      </c>
+      <c r="C11">
         <v>2442000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>2342000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>2117000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>2228000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>2180000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>2316000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>1754000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>1793000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>1773000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>1496000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>1918000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>1878000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>2021000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>2058000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>1790000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>2016000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>2076000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>1938000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>1711000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>2092000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>1983000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>1869000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>1688000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>1831000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>1805000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>1564000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>1566000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>1782000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>2081000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>1938000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>1855000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>2298000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>2206000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>2080000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>1759000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>1883000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>1852000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>1768000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>1545000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>533000000</v>
+      </c>
+      <c r="C12">
         <v>547000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>507000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>487000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>517000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>507000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>518000000</v>
-      </c>
-      <c r="H12">
-        <v>413000000</v>
       </c>
       <c r="I12">
         <v>413000000</v>
       </c>
       <c r="J12">
+        <v>413000000</v>
+      </c>
+      <c r="K12">
         <v>410000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>364000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>444000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>475000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>466000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>488000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>399000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>462000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>483000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>429000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>401000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>-5186000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>789000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>701000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>616000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>687000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>674000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>585000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>587000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>665000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>781000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>734000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>704000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>867000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>836000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>789000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>671000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>709000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>701000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>662000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>588000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>1638000000</v>
+      </c>
+      <c r="C13">
         <v>1895000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>1835000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>1630000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>1711000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>1673000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>1798000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>1341000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>1380000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>1363000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>1132000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>1474000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>1403000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>1555000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>1570000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>1391000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>1554000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>1593000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>1509000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>1310000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>7278000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>1194000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>1168000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>1072000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>1144000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>1131000000</v>
-      </c>
-      <c r="AA13">
-        <v>979000000</v>
       </c>
       <c r="AB13">
         <v>979000000</v>
       </c>
       <c r="AC13">
+        <v>979000000</v>
+      </c>
+      <c r="AD13">
         <v>1117000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>1300000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>1204000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>1151000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>1431000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>1370000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>1291000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>1088000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>1174000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>1151000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>1106000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>957000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>1638000000</v>
+      </c>
+      <c r="C14">
         <v>1895000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>1835000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>1630000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>1711000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>1673000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>1798000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>1341000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>1380000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>1363000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>1132000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>1474000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>1403000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>1555000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>1570000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>1391000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>1554000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>1593000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>1509000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>1310000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>7278000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>1194000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>1168000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>1072000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>1144000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>1131000000</v>
-      </c>
-      <c r="AA14">
-        <v>979000000</v>
       </c>
       <c r="AB14">
         <v>979000000</v>
       </c>
       <c r="AC14">
+        <v>979000000</v>
+      </c>
+      <c r="AD14">
         <v>1117000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>1300000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>1204000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>1151000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>1431000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>1370000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>1291000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>1088000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>1174000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>1151000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>1106000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>957000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15">
         <v>3.05</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>2.93</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>2.58</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>2.67</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>2.58</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>2.73</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>2.01</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>2.05</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>2.02</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>1.67</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>2.15</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>2.03</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>2.22</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>2.23</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>1.94</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>2.13</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>2.16</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>1.98</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>1.69</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>9.289999999999999</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>1.5</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>1.45</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>1.32</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>1.4</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>1.36</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>1.17</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>1.16</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>1.31</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>1.51</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>1.38</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>1.31</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>1.62</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>1.53</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>1.43</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>1.2</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>1.28</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>1.245</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>1.19</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>1.025</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16">
         <v>3.05</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>2.93</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>2.57</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>2.66</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>2.57</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>2.72</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>2</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>2.05</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>2.01</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>1.67</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>2.15</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>2.02</v>
-      </c>
-      <c r="N16">
-        <v>2.22</v>
       </c>
       <c r="O16">
         <v>2.22</v>
       </c>
       <c r="P16">
+        <v>2.22</v>
+      </c>
+      <c r="Q16">
         <v>1.93</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>2.12</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>2.15</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>1.98</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>1.68</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>9.25</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>1.5</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>1.45</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>1.32</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>1.39</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>1.36</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>1.17</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>1.16</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>1.31</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>1.5</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>1.38</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>1.3</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>1.61</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>1.53</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>1.43</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>1.19</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>1.275</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>1.24</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>1.185</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>1.015</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>612700000</v>
+      </c>
+      <c r="C17">
         <v>620400000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>625600000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>632200000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>653800000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>648700000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>658500000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>667600000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>677300000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>675000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>677700000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>684300000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>703500000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>699300000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>705500000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>716800000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>750900000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>737400000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>760500000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>776400000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>798400000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>794500000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>804100000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>811500000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>832400000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>829000000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>837400000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>844000000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>866200000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>862900000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>872200000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>879300000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>897100000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>893200000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>901500000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>908100000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>926500000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>923500000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>930600000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>935600000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>613700000</v>
+      </c>
+      <c r="C18">
         <v>621500000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>626800000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>633600000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>655400000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>650300000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>660100000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>669200000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>679100000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>676800000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>679200000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>686200000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>706100000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>701900000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>708000000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>719500000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>754300000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>740900000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>763700000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>779600000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>801700000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>797600000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>807200000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>814800000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>835400000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>832200000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>840100000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>846700000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>869400000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>865800000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>875200000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>882800000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>901100000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>896900000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>905000000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>912500000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>931500000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>928400000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>935300000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>941000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>0.5696</v>
+      </c>
+      <c r="C19">
         <v>0.5681</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0.5766</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0.5945</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>0.6153999999999999</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.6238</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>0.6372</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>0.6147</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>0.6411</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>0.6306</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>0.6246</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>0.6148</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>0.5986</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>0.599</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>0.5929</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>0.5706</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>0.5654</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>0.5693</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>0.5568</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>0.5505</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>0.5655</v>
-      </c>
-      <c r="V19">
-        <v>0.5743</v>
       </c>
       <c r="W19">
         <v>0.5743</v>
       </c>
       <c r="X19">
+        <v>0.5743</v>
+      </c>
+      <c r="Y19">
         <v>0.5542</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>0.5745</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>0.5847</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>0.5648</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>0.5647</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>0.5712</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>0.5793</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>0.5495</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>0.5411</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>0.5503</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>0.544</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>0.5337</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>0.5066000000000001</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>0.5204</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>0.5245</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>0.5185999999999999</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>0.4947</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>0.3903</v>
+      </c>
+      <c r="C20">
         <v>0.401</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>0.398</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0.4056</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>0.4256</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>0.4369</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>0.4493</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>0.3985</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0.3902</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>0.4129</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>0.3897</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>0.4098</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>0.4029</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>0.405</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>0.4039</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>0.364</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>0.3839</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>0.3828</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>0.3701</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>0.3542</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>0.4123</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>0.3833</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>0.3806</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>0.3484</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>0.3746</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>0.3788</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>0.348</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>0.3493</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>0.3683</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>0.397</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>0.359</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>0.3522</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>0.3857</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>0.3769</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>0.3651</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>0.3288</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>0.3504</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>0.3521</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>0.3433</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>0.3087</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>0.3513</v>
+      </c>
+      <c r="C21">
         <v>0.3719</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.3736</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.3613</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>0.3886</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.3917</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.4208</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0.3507</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.3488</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>0.3604</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>0.3525</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>0.3668</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>0.3603</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>0.3664</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>0.3678</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>0.3325</v>
-      </c>
-      <c r="Q21">
-        <v>0.3502</v>
       </c>
       <c r="R21">
         <v>0.3502</v>
       </c>
       <c r="S21">
+        <v>0.3502</v>
+      </c>
+      <c r="T21">
         <v>0.3417</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>0.3125</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>0.3839</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>0.3667</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>0.356</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>0.3289</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>0.3543</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>0.3489</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>0.3279</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>0.3243</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>0.3422</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>0.3741</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>0.357</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>0.3304</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>0.3735</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>0.3568</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>0.3458</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>0.312</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>0.3345</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>0.3323</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>0.3232</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>0.2921</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>0.265</v>
+      </c>
+      <c r="C22">
         <v>0.2886</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.2927</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>0.2782</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>0.2984</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.3006</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>0.3267</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>0.2681</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>0.2684</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>0.2771</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>0.2667</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>0.2819</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>0.2692</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>0.2819</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>0.2806</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>0.2584</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>0.2699</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>0.2687</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>0.266</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>0.2393</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>1.3354</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>0.2208</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>0.2225</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>0.2089</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>0.2214</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>0.2186</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>0.2052</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>0.2027</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>0.2145</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>0.2337</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>0.2218</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>0.205</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>0.2326</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>0.2216</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>0.2146</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>0.193</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>0.2085</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>0.2065</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>0.2022</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>0.1809</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23">
         <v>3196000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>3054000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>2932000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>2996000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>2985000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>3023000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>2542000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>2563000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>2586000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>2205000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>2690000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>2659000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>2791000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>2811000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>2509000000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>2765000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>2816000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>2645000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>2482000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>2779000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>2601000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>2523000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>2308000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>2456000000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>2472000000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>2164000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>2189000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>2435000000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>2715000000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>2446000000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>2468000000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>2862000000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>2811000000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>2666000000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>2318000000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>2431000000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>2409000000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>2316000000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>2067000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>2412000000</v>
+      </c>
+      <c r="C24">
         <v>2633000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>2495000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>2377000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>2440000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>2432000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>2473000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>1993000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>2006000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>2031000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>1654000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>2143000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>2100000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>2234000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>2260000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>1960000000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>2210000000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>2269000000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>2099000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>1939000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>2247000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>2073000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>1998000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>1788000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>1936000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>1960000000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>1660000000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>1687000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>1918000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>2208000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>1949000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>1977000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>2373000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>2330000000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>2196000000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>1854000000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>1973000000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>1962000000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>1878000000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>1633000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>1638000000</v>
+      </c>
+      <c r="C25">
         <v>1895000000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>1835000000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>1630000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>1711000000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>1673000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>1798000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>1341000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>1380000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>1363000000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>1132000000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>1474000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>1403000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>1555000000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>1570000000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>1391000000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>1554000000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>1593000000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>1509000000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>1310000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>7278000000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>1194000000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>1168000000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>1072000000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>1144000000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>1131000000</v>
-      </c>
-      <c r="AA25">
-        <v>979000000</v>
       </c>
       <c r="AB25">
         <v>979000000</v>
       </c>
       <c r="AC25">
+        <v>979000000</v>
+      </c>
+      <c r="AD25">
         <v>1117000000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>1300000000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>1204000000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>1151000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>1431000000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>1370000000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>1291000000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>1088000000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>1174000000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>1151000000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>1106000000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>957000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>1638000000</v>
+      </c>
+      <c r="C26">
         <v>1895000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>1835000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>1630000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>1711000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>1673000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>1798000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>1341000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>1380000000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>1363000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>1132000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>1474000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>1403000000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>1555000000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>1570000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>1391000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>1554000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>1593000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>1509000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>1310000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>7278000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>1194000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>1168000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>1072000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>1144000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>1131000000</v>
-      </c>
-      <c r="AA26">
-        <v>979000000</v>
       </c>
       <c r="AB26">
         <v>979000000</v>
       </c>
       <c r="AC26">
+        <v>979000000</v>
+      </c>
+      <c r="AD26">
         <v>1117000000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>1300000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>1204000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>1151000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>1431000000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>1370000000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>1291000000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>1088000000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>1174000000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>1151000000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>1106000000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>957000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>2.6734</v>
+      </c>
+      <c r="C27">
         <v>3.0545</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>2.9332</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>2.5783</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>2.6589</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>2.579</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>2.7304</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>2.0087</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>2.0539</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>2.0193</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>1.6704</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>2.154</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>2.0241</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>2.2237</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>2.2254</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>1.9406</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>2.1133</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>2.1603</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>1.9842</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>1.6873</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>9.1404</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>1.5028</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>1.4526</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>1.321</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>1.392</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>1.3643</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>1.1691</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>1.16</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>1.3132</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>1.5065</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>1.3804</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>1.309</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>1.6102</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>1.5338</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>1.4321</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>1.1981</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>1.2784</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>1.2463</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>1.1885</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>1.0229</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>2.6691</v>
+      </c>
+      <c r="C28">
         <v>3.0491</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>2.9276</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>2.5726</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>2.6523</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>2.5727</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>2.7238</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>2.0039</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>2.048</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>2.0139</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>1.6667</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>2.1481</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>2.0164</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>2.2154</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>2.2175</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>1.9333</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>2.103</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>2.1501</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>1.9759</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>1.6803</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>9.102</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>1.497</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>1.447</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>1.3157</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>1.3864</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>1.359</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>1.1653</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>1.1563</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>1.3079</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>1.5015</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>1.3757</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>1.3038</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>1.6022</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>1.5275</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>1.4265</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>1.1923</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>1.2714</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>1.2398</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>1.1825</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>1.017</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>2.6734</v>
+      </c>
+      <c r="C29">
         <v>3.0545</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>2.9332</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>2.5783</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>2.6589</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>2.579</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>2.7304</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>2.0087</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>2.0539</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>2.0193</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>1.6704</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>2.154</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>2.0241</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>2.2237</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>2.2254</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>1.9406</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>2.1133</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>2.1603</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>1.9842</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>1.6873</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>9.1404</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>1.5028</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>1.4526</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>1.321</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>1.392</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>1.3643</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>1.1691</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>1.16</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>1.3132</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>1.5065</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>1.3804</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>1.309</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>1.6102</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>1.5338</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>1.4321</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>1.1981</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>1.2784</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>1.2463</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>1.1885</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>1.0229</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>2.6691</v>
+      </c>
+      <c r="C30">
         <v>3.0491</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>2.9276</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>2.5726</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>2.6523</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>2.5727</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>2.7238</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>2.0039</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>2.048</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>2.0139</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>1.6667</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>2.1481</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>2.0164</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>2.2154</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>2.2175</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>1.9333</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>2.103</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>2.1501</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>1.9759</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>1.6803</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>9.102</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>1.497</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>1.447</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>1.3157</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>1.3864</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>1.359</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>1.1653</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>1.1563</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>1.3079</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>1.5015</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>1.3757</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>1.3038</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>1.6022</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>1.5275</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>1.4265</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>1.1923</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>1.2714</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>1.2398</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>1.1825</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>1.017</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31">
         <v>621500000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>626800000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>633600000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>642100000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>650300000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>660100000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>669200000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>674100000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>676800000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>679200000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>686200000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>694900000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>701900000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>708000000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>719500000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>732900000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>740000000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>763700000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>779600000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>787000000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>797600000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>807200000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>814800000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>822700000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>832200000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>840100000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>846700000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>853700000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>865800000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>875200000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>882800000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>889800000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>896900000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>905000000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>912400000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>921400000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>928400000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>935200000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>941000000</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
         <v>0.4867</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>0.4872</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>0.5003</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>0.5226</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>0.5363</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>0.5492</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>0.5083</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>0.4985</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>0.5256999999999999</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>0.5196</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>0.5144</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>0.5102</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>0.506</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>0.5023</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>0.466</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>0.4803</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>0.475</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>0.4663</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>0.4533</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>0.5099</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>0.481</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>0.4806</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>0.4497</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>0.4752</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>0.4778</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>0.4537</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>0.4533</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>0.4675</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>0.4881</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>0.4505</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>0.4396</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>0.4651</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>0.4547</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>0.4432</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>0.4111</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>0.4318</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>0.4323</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>0.4234</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>0.3907</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B33">
+        <v>0.3709</v>
+      </c>
+      <c r="C33">
         <v>0.4421</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>0.308</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>0.3816</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>0.4411</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>0.4103</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>0.4108</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>0.3915</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>0.4954</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>0.3255</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>0.5271</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>0.4121</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>0.4499</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>0.4286</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>0.3469</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>0.3639</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>0.4016</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>0.3949</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>0.3759</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>0.3472</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>0.3361</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>0.3585</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>0.3002</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>0.3669</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>0.3982</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>0.3753</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>0.2834</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>0.45</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>0.3301</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>0.333</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>0.3148</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>0.3677</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>0.3294</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>0.3457</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>0.2417</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>0.3134</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>0.3449</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>0.2984</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>0.3097</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>0.2881</v>
       </c>
     </row>
